--- a/0OCTAVO0/Data mining/minning/bayes/data.xlsx
+++ b/0OCTAVO0/Data mining/minning/bayes/data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0OCTAVO0\Data mining\minning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\chris\Documents\0ESCUELA0\octavo\0OCTAVO0\Data mining\minning\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDDBED-7285-4921-9B89-12B252BCB556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F1079A-9251-4DDF-AC9D-2844FDA8E5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataText" sheetId="1" r:id="rId1"/>
-    <sheet name="dataNum" sheetId="2" r:id="rId2"/>
+    <sheet name="prediccion" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
   <si>
     <t>sunny</t>
   </si>
@@ -396,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838E9F99-4A16-447D-9281-AFCB9B8568C5}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001122D6-695A-4AB2-801D-A36E9B925C6A}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -692,246 +692,61 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>86</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>70</v>
-      </c>
-      <c r="C5">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>68</v>
-      </c>
-      <c r="C6">
-        <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>64</v>
-      </c>
-      <c r="C8">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>81</v>
-      </c>
-      <c r="C14">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>71</v>
-      </c>
-      <c r="C15">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
